--- a/output/SharedMedicinesList/list-meds-current-1.xlsx
+++ b/output/SharedMedicinesList/list-meds-current-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$40</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="300">
   <si>
     <t>Path</t>
   </si>
@@ -301,7 +301,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base/).</t>
+    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -474,14 +474,14 @@
     <t>sourceRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/list-source-role}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/author-role}
 </t>
   </si>
   <si>
     <t>Practitioner role that authored the list</t>
   </si>
   <si>
-    <t>The entity (practitioner role) responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
+    <t>Identifies the practitioner role responsible for the information in the resource (aka author), not necessarily who typed it in.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -490,6 +490,23 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-lst-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {List.extension('http://hl7.org.au/fhir/StructureDefinition/list-source-role').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+  </si>
+  <si>
+    <t>sourceRelatedPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/author-related-person}
+</t>
+  </si>
+  <si>
+    <t>Related person that defined the list contents (aka Author)</t>
+  </si>
+  <si>
+    <t>The entity (related person) responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -825,10 +842,6 @@
   </si>
   <si>
     <t>Description of a change including the reason for change.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>List.entry.modifierExtension</t>
@@ -1096,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1106,7 +1119,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1115,7 +1128,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2929,40 +2942,40 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3011,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -3020,13 +3033,13 @@
         <v>40</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3034,11 +3047,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3051,13 +3064,13 @@
         <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>157</v>
@@ -3065,7 +3078,9 @@
       <c r="L19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3114,7 +3129,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3129,15 +3144,15 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>160</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3145,22 +3160,22 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>162</v>
@@ -3168,81 +3183,79 @@
       <c r="L20" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W20" t="s" s="2">
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3256,7 +3269,7 @@
         <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>49</v>
@@ -3268,88 +3281,86 @@
         <v>117</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3357,104 +3368,106 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3462,7 +3475,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>48</v>
@@ -3477,32 +3490,30 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -3514,13 +3525,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3538,7 +3549,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3553,15 +3564,15 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3584,26 +3595,26 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>41</v>
@@ -3621,13 +3632,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3645,7 +3656,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3660,15 +3671,15 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3688,19 +3699,23 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -3748,7 +3763,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3763,15 +3778,15 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3791,23 +3806,19 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3870,19 +3881,19 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3901,19 +3912,19 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -3962,7 +3973,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3977,50 +3988,50 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4045,54 +4056,54 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4103,10 +4114,10 @@
         <v>39</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4115,16 +4126,20 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4148,13 +4163,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4172,13 +4187,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4203,7 +4218,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>40</v>
@@ -4226,9 +4241,7 @@
       <c r="L30" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4286,21 +4299,21 @@
         <v>40</v>
       </c>
       <c r="AH30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4308,13 +4321,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -4323,15 +4336,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4380,22 +4395,22 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4403,7 +4418,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4414,7 +4429,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4426,13 +4441,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4471,23 +4486,25 @@
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -4496,19 +4513,17 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
@@ -4517,10 +4532,10 @@
         <v>39</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -4529,13 +4544,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4574,16 +4589,14 @@
         <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>76</v>
@@ -4595,54 +4608,54 @@
         <v>40</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
+      <c r="B34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -4691,7 +4704,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4700,57 +4713,55 @@
         <v>40</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -4774,11 +4785,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -4796,13 +4809,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -4811,15 +4824,15 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4827,37 +4840,37 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="O36" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
@@ -4879,13 +4892,11 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -4903,7 +4914,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4912,13 +4923,13 @@
         <v>48</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -4926,7 +4937,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4943,28 +4954,28 @@
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -5010,7 +5021,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5019,21 +5030,21 @@
         <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5041,13 +5052,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5056,16 +5067,20 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5113,10 +5128,10 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>48</v>
@@ -5128,15 +5143,15 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5144,13 +5159,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -5159,7 +5174,7 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>289</v>
@@ -5167,12 +5182,8 @@
       <c r="L39" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5196,53 +5207,160 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="N40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK39">
+  <autoFilter ref="A1:AK40">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5252,7 +5370,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
